--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H2">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I2">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J2">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.661285666666667</v>
+        <v>3.613473333333334</v>
       </c>
       <c r="N2">
-        <v>7.983857</v>
+        <v>10.84042</v>
       </c>
       <c r="O2">
-        <v>0.04511803595953789</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="P2">
-        <v>0.04511803595953789</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="Q2">
-        <v>199.8594717978647</v>
+        <v>258.0451468940556</v>
       </c>
       <c r="R2">
-        <v>1798.735246180782</v>
+        <v>2322.4063220465</v>
       </c>
       <c r="S2">
-        <v>0.00109655177432248</v>
+        <v>0.00138209328078503</v>
       </c>
       <c r="T2">
-        <v>0.00109655177432248</v>
+        <v>0.00138209328078503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H3">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I3">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J3">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>123.9369</v>
       </c>
       <c r="O3">
-        <v>0.7003869822460062</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="P3">
-        <v>0.7003869822460062</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="Q3">
-        <v>3102.5058903566</v>
+        <v>2950.191557715833</v>
       </c>
       <c r="R3">
-        <v>27922.5530132094</v>
+        <v>26551.7240194425</v>
       </c>
       <c r="S3">
-        <v>0.01702225222709121</v>
+        <v>0.01580126570108226</v>
       </c>
       <c r="T3">
-        <v>0.01702225222709121</v>
+        <v>0.01580126570108227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H4">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I4">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J4">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.96084766666667</v>
+        <v>0.3351513333333333</v>
       </c>
       <c r="N4">
-        <v>44.882543</v>
+        <v>1.005454</v>
       </c>
       <c r="O4">
-        <v>0.2536383340820741</v>
+        <v>0.005575308836750888</v>
       </c>
       <c r="P4">
-        <v>0.2536383340820741</v>
+        <v>0.005575308836750887</v>
       </c>
       <c r="Q4">
-        <v>1123.542335105069</v>
+        <v>23.93380746550555</v>
       </c>
       <c r="R4">
-        <v>10111.88101594562</v>
+        <v>215.40426718955</v>
       </c>
       <c r="S4">
-        <v>0.006164443095956629</v>
+        <v>0.000128189795002263</v>
       </c>
       <c r="T4">
-        <v>0.006164443095956628</v>
+        <v>0.000128189795002263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.098842</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H5">
-        <v>225.296526</v>
+        <v>214.235825</v>
       </c>
       <c r="I5">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J5">
-        <v>0.02430406712087099</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05052933333333334</v>
+        <v>14.67089366666667</v>
       </c>
       <c r="N5">
-        <v>0.151588</v>
+        <v>44.012681</v>
       </c>
       <c r="O5">
-        <v>0.0008566477123819265</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="P5">
-        <v>0.0008566477123819264</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="Q5">
-        <v>3.794694420365334</v>
+        <v>1047.677002721869</v>
       </c>
       <c r="R5">
-        <v>34.15224978328801</v>
+        <v>9429.093024496826</v>
       </c>
       <c r="S5">
-        <v>2.082002350067093E-05</v>
+        <v>0.005611372131285961</v>
       </c>
       <c r="T5">
-        <v>2.082002350067093E-05</v>
+        <v>0.005611372131285961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2966.075764666667</v>
+        <v>71.41194166666666</v>
       </c>
       <c r="H6">
-        <v>8898.227294</v>
+        <v>214.235825</v>
       </c>
       <c r="I6">
-        <v>0.9599043414017944</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="J6">
-        <v>0.9599043414017943</v>
+        <v>0.02299241149786563</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.661285666666667</v>
+        <v>0.1816826666666667</v>
       </c>
       <c r="N6">
-        <v>7.983857</v>
+        <v>0.545048</v>
       </c>
       <c r="O6">
-        <v>0.04511803595953789</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="P6">
-        <v>0.04511803595953789</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="Q6">
-        <v>7893.574918754773</v>
+        <v>12.97431199384444</v>
       </c>
       <c r="R6">
-        <v>71042.17426879295</v>
+        <v>116.7688079446</v>
       </c>
       <c r="S6">
-        <v>0.0433089985930827</v>
+        <v>6.949058971011447E-05</v>
       </c>
       <c r="T6">
-        <v>0.0433089985930827</v>
+        <v>6.949058971011447E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>8898.227294</v>
       </c>
       <c r="I7">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J7">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.3123</v>
+        <v>3.613473333333334</v>
       </c>
       <c r="N7">
-        <v>123.9369</v>
+        <v>10.84042</v>
       </c>
       <c r="O7">
-        <v>0.7003869822460062</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="P7">
-        <v>0.7003869822460062</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="Q7">
-        <v>122535.4118126387</v>
+        <v>10717.83568026928</v>
       </c>
       <c r="R7">
-        <v>1102818.706313749</v>
+        <v>96460.5211224235</v>
       </c>
       <c r="S7">
-        <v>0.6723045049192428</v>
+        <v>0.05740487219602679</v>
       </c>
       <c r="T7">
-        <v>0.6723045049192427</v>
+        <v>0.05740487219602679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>8898.227294</v>
       </c>
       <c r="I8">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J8">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.96084766666667</v>
+        <v>41.3123</v>
       </c>
       <c r="N8">
-        <v>44.882543</v>
+        <v>123.9369</v>
       </c>
       <c r="O8">
-        <v>0.2536383340820741</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="P8">
-        <v>0.2536383340820741</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="Q8">
-        <v>44375.00768296984</v>
+        <v>122535.4118126387</v>
       </c>
       <c r="R8">
-        <v>399375.0691467287</v>
+        <v>1102818.706313749</v>
       </c>
       <c r="S8">
-        <v>0.2434685380313016</v>
+        <v>0.6563013153431096</v>
       </c>
       <c r="T8">
-        <v>0.2434685380313016</v>
+        <v>0.6563013153431096</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>8898.227294</v>
       </c>
       <c r="I9">
-        <v>0.9599043414017944</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J9">
-        <v>0.9599043414017943</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05052933333333334</v>
+        <v>0.3351513333333333</v>
       </c>
       <c r="N9">
-        <v>0.151588</v>
+        <v>1.005454</v>
       </c>
       <c r="O9">
-        <v>0.0008566477123819265</v>
+        <v>0.005575308836750888</v>
       </c>
       <c r="P9">
-        <v>0.0008566477123819264</v>
+        <v>0.005575308836750887</v>
       </c>
       <c r="Q9">
-        <v>149.8738310047636</v>
+        <v>994.0842472957195</v>
       </c>
       <c r="R9">
-        <v>1348.864479042872</v>
+        <v>8946.758225661475</v>
       </c>
       <c r="S9">
-        <v>0.000822299858167327</v>
+        <v>0.005324328611712822</v>
       </c>
       <c r="T9">
-        <v>0.0008222998581673268</v>
+        <v>0.005324328611712822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2249183333333333</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H10">
-        <v>0.674755</v>
+        <v>8898.227294</v>
       </c>
       <c r="I10">
-        <v>7.278980773162612E-05</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J10">
-        <v>7.278980773162612E-05</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.661285666666667</v>
+        <v>14.67089366666667</v>
       </c>
       <c r="N10">
-        <v>7.983857</v>
+        <v>44.012681</v>
       </c>
       <c r="O10">
-        <v>0.04511803595953789</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="P10">
-        <v>0.04511803595953789</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="Q10">
-        <v>0.5985719366705555</v>
+        <v>43514.98215070169</v>
       </c>
       <c r="R10">
-        <v>5.387147430034999</v>
+        <v>391634.8393563152</v>
       </c>
       <c r="S10">
-        <v>3.284133162723357E-06</v>
+        <v>0.233066830234391</v>
       </c>
       <c r="T10">
-        <v>3.284133162723357E-06</v>
+        <v>0.233066830234391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2249183333333333</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H11">
-        <v>0.674755</v>
+        <v>8898.227294</v>
       </c>
       <c r="I11">
-        <v>7.278980773162612E-05</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="J11">
-        <v>7.278980773162612E-05</v>
+        <v>0.9549836193138445</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.3123</v>
+        <v>0.1816826666666667</v>
       </c>
       <c r="N11">
-        <v>123.9369</v>
+        <v>0.545048</v>
       </c>
       <c r="O11">
-        <v>0.7003869822460062</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="P11">
-        <v>0.7003869822460062</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="Q11">
-        <v>9.291893662166666</v>
+        <v>538.8845544600124</v>
       </c>
       <c r="R11">
-        <v>83.6270429595</v>
+        <v>4849.960990140112</v>
       </c>
       <c r="S11">
-        <v>5.098103377542062E-05</v>
+        <v>0.002886272928604243</v>
       </c>
       <c r="T11">
-        <v>5.098103377542062E-05</v>
+        <v>0.002886272928604243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H12">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I12">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J12">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.96084766666667</v>
+        <v>3.613473333333334</v>
       </c>
       <c r="N12">
-        <v>44.882543</v>
+        <v>10.84042</v>
       </c>
       <c r="O12">
-        <v>0.2536383340820741</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="P12">
-        <v>0.2536383340820741</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="Q12">
-        <v>3.364968922440555</v>
+        <v>5.311037334671112</v>
       </c>
       <c r="R12">
-        <v>30.284720301965</v>
+        <v>47.79933601204001</v>
       </c>
       <c r="S12">
-        <v>1.846228557120413E-05</v>
+        <v>2.844598746614318E-05</v>
       </c>
       <c r="T12">
-        <v>1.846228557120413E-05</v>
+        <v>2.844598746614317E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2249183333333333</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H13">
-        <v>0.674755</v>
+        <v>4.409362</v>
       </c>
       <c r="I13">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J13">
-        <v>7.278980773162612E-05</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05052933333333334</v>
+        <v>41.3123</v>
       </c>
       <c r="N13">
-        <v>0.151588</v>
+        <v>123.9369</v>
       </c>
       <c r="O13">
-        <v>0.0008566477123819265</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="P13">
-        <v>0.0008566477123819264</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="Q13">
-        <v>0.01136497343777778</v>
+        <v>60.72029525086667</v>
       </c>
       <c r="R13">
-        <v>0.10228476094</v>
+        <v>546.4826572578</v>
       </c>
       <c r="S13">
-        <v>6.235522227801778E-08</v>
+        <v>0.0003252187188312482</v>
       </c>
       <c r="T13">
-        <v>6.235522227801778E-08</v>
+        <v>0.0003252187188312482</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.15243766666666</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H14">
-        <v>144.457313</v>
+        <v>4.409362</v>
       </c>
       <c r="I14">
-        <v>0.01558346368488909</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J14">
-        <v>0.01558346368488908</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,43 +1302,43 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.661285666666667</v>
+        <v>0.3351513333333333</v>
       </c>
       <c r="N14">
-        <v>7.983857</v>
+        <v>1.005454</v>
       </c>
       <c r="O14">
-        <v>0.04511803595953789</v>
+        <v>0.005575308836750888</v>
       </c>
       <c r="P14">
-        <v>0.04511803595953789</v>
+        <v>0.005575308836750887</v>
       </c>
       <c r="Q14">
-        <v>128.1473921773601</v>
+        <v>0.4926011844831111</v>
       </c>
       <c r="R14">
-        <v>1153.326529596241</v>
+        <v>4.433410660347999</v>
       </c>
       <c r="S14">
-        <v>0.0007030952749089787</v>
+        <v>2.638378575902365E-06</v>
       </c>
       <c r="T14">
-        <v>0.0007030952749089785</v>
+        <v>2.638378575902364E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.15243766666666</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H15">
-        <v>144.457313</v>
+        <v>4.409362</v>
       </c>
       <c r="I15">
-        <v>0.01558346368488909</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J15">
-        <v>0.01558346368488908</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.3123</v>
+        <v>14.67089366666667</v>
       </c>
       <c r="N15">
-        <v>123.9369</v>
+        <v>44.012681</v>
       </c>
       <c r="O15">
-        <v>0.7003869822460062</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="P15">
-        <v>0.7003869822460062</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="Q15">
-        <v>1989.287950616633</v>
+        <v>21.56309367994689</v>
       </c>
       <c r="R15">
-        <v>17903.5915555497</v>
+        <v>194.067843119522</v>
       </c>
       <c r="S15">
-        <v>0.01091445510319969</v>
+        <v>0.0001154922200502709</v>
       </c>
       <c r="T15">
-        <v>0.01091445510319969</v>
+        <v>0.0001154922200502709</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.15243766666666</v>
+        <v>1.469787333333333</v>
       </c>
       <c r="H16">
-        <v>144.457313</v>
+        <v>4.409362</v>
       </c>
       <c r="I16">
-        <v>0.01558346368488909</v>
+        <v>0.0004732255473474234</v>
       </c>
       <c r="J16">
-        <v>0.01558346368488908</v>
+        <v>0.0004732255473474233</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.96084766666667</v>
+        <v>0.1816826666666667</v>
       </c>
       <c r="N16">
-        <v>44.882543</v>
+        <v>0.545048</v>
       </c>
       <c r="O16">
-        <v>0.2536383340820741</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="P16">
-        <v>0.2536383340820741</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="Q16">
-        <v>720.401284709662</v>
+        <v>0.2670348821528889</v>
       </c>
       <c r="R16">
-        <v>6483.611562386959</v>
+        <v>2.403313939376</v>
       </c>
       <c r="S16">
-        <v>0.003952563768263767</v>
+        <v>1.430242423858707E-06</v>
       </c>
       <c r="T16">
-        <v>0.003952563768263767</v>
+        <v>1.430242423858706E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.15243766666666</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H17">
-        <v>144.457313</v>
+        <v>196.557838</v>
       </c>
       <c r="I17">
-        <v>0.01558346368488909</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J17">
-        <v>0.01558346368488908</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.05052933333333334</v>
+        <v>3.613473333333334</v>
       </c>
       <c r="N17">
-        <v>0.151588</v>
+        <v>10.84042</v>
       </c>
       <c r="O17">
-        <v>0.0008566477123819265</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="P17">
-        <v>0.0008566477123819264</v>
+        <v>0.06011084487215831</v>
       </c>
       <c r="Q17">
-        <v>2.433110573671556</v>
+        <v>236.7521686902178</v>
       </c>
       <c r="R17">
-        <v>21.897995163044</v>
+        <v>2130.76951821196</v>
       </c>
       <c r="S17">
-        <v>1.334953851664706E-05</v>
+        <v>0.001268047802861321</v>
       </c>
       <c r="T17">
-        <v>1.334953851664706E-05</v>
+        <v>0.001268047802861321</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4181903333333334</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H18">
-        <v>1.254571</v>
+        <v>196.557838</v>
       </c>
       <c r="I18">
-        <v>0.0001353379847139687</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J18">
-        <v>0.0001353379847139686</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.661285666666667</v>
+        <v>41.3123</v>
       </c>
       <c r="N18">
-        <v>7.983857</v>
+        <v>123.9369</v>
       </c>
       <c r="O18">
-        <v>0.04511803595953789</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="P18">
-        <v>0.04511803595953789</v>
+        <v>0.6872382961025677</v>
       </c>
       <c r="Q18">
-        <v>1.112923940038556</v>
+        <v>2706.752123602467</v>
       </c>
       <c r="R18">
-        <v>10.016315460347</v>
+        <v>24360.7691124222</v>
       </c>
       <c r="S18">
-        <v>6.106184061016228E-06</v>
+        <v>0.01449740081458497</v>
       </c>
       <c r="T18">
-        <v>6.106184061016227E-06</v>
+        <v>0.01449740081458497</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4181903333333334</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H19">
-        <v>1.254571</v>
+        <v>196.557838</v>
       </c>
       <c r="I19">
-        <v>0.0001353379847139687</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J19">
-        <v>0.0001353379847139686</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.3123</v>
+        <v>0.3351513333333333</v>
       </c>
       <c r="N19">
-        <v>123.9369</v>
+        <v>1.005454</v>
       </c>
       <c r="O19">
-        <v>0.7003869822460062</v>
+        <v>0.005575308836750888</v>
       </c>
       <c r="P19">
-        <v>0.7003869822460062</v>
+        <v>0.005575308836750887</v>
       </c>
       <c r="Q19">
-        <v>17.27640450776667</v>
+        <v>21.95887382760577</v>
       </c>
       <c r="R19">
-        <v>155.4876405699</v>
+        <v>197.6298644484519</v>
       </c>
       <c r="S19">
-        <v>9.478896269707263E-05</v>
+        <v>0.0001176120238494566</v>
       </c>
       <c r="T19">
-        <v>9.478896269707261E-05</v>
+        <v>0.0001176120238494566</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4181903333333334</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H20">
-        <v>1.254571</v>
+        <v>196.557838</v>
       </c>
       <c r="I20">
-        <v>0.0001353379847139687</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J20">
-        <v>0.0001353379847139686</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.96084766666667</v>
+        <v>14.67089366666667</v>
       </c>
       <c r="N20">
-        <v>44.882543</v>
+        <v>44.012681</v>
       </c>
       <c r="O20">
-        <v>0.2536383340820741</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="P20">
-        <v>0.2536383340820741</v>
+        <v>0.2440532230299923</v>
       </c>
       <c r="Q20">
-        <v>6.256481872672556</v>
+        <v>961.2263802159641</v>
       </c>
       <c r="R20">
-        <v>56.308336854053</v>
+        <v>8651.037421943676</v>
       </c>
       <c r="S20">
-        <v>3.432690098087622E-05</v>
+        <v>0.005148341433273453</v>
       </c>
       <c r="T20">
-        <v>3.432690098087621E-05</v>
+        <v>0.005148341433273452</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4181903333333334</v>
+        <v>65.51927933333333</v>
       </c>
       <c r="H21">
-        <v>1.254571</v>
+        <v>196.557838</v>
       </c>
       <c r="I21">
-        <v>0.0001353379847139687</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="J21">
-        <v>0.0001353379847139686</v>
+        <v>0.02109515854515373</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05052933333333334</v>
+        <v>0.1816826666666667</v>
       </c>
       <c r="N21">
-        <v>0.151588</v>
+        <v>0.545048</v>
       </c>
       <c r="O21">
-        <v>0.0008566477123819265</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="P21">
-        <v>0.0008566477123819264</v>
+        <v>0.003022327158530771</v>
       </c>
       <c r="Q21">
-        <v>0.02113087874977778</v>
+        <v>11.90371738735822</v>
       </c>
       <c r="R21">
-        <v>0.190177908748</v>
+        <v>107.133456486224</v>
       </c>
       <c r="S21">
-        <v>1.159369750036014E-07</v>
+        <v>6.37564705845306E-05</v>
       </c>
       <c r="T21">
-        <v>1.159369750036014E-07</v>
+        <v>6.375647058453059E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.414998</v>
+      </c>
+      <c r="H22">
+        <v>4.244994</v>
+      </c>
+      <c r="I22">
+        <v>0.0004555850957885808</v>
+      </c>
+      <c r="J22">
+        <v>0.0004555850957885808</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.613473333333334</v>
+      </c>
+      <c r="N22">
+        <v>10.84042</v>
+      </c>
+      <c r="O22">
+        <v>0.06011084487215831</v>
+      </c>
+      <c r="P22">
+        <v>0.06011084487215831</v>
+      </c>
+      <c r="Q22">
+        <v>5.113057539720001</v>
+      </c>
+      <c r="R22">
+        <v>46.01751785748001</v>
+      </c>
+      <c r="S22">
+        <v>2.738560501901477E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.738560501901477E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.414998</v>
+      </c>
+      <c r="H23">
+        <v>4.244994</v>
+      </c>
+      <c r="I23">
+        <v>0.0004555850957885808</v>
+      </c>
+      <c r="J23">
+        <v>0.0004555850957885808</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>41.3123</v>
+      </c>
+      <c r="N23">
+        <v>123.9369</v>
+      </c>
+      <c r="O23">
+        <v>0.6872382961025677</v>
+      </c>
+      <c r="P23">
+        <v>0.6872382961025677</v>
+      </c>
+      <c r="Q23">
+        <v>58.4568218754</v>
+      </c>
+      <c r="R23">
+        <v>526.1113968786001</v>
+      </c>
+      <c r="S23">
+        <v>0.0003130955249594693</v>
+      </c>
+      <c r="T23">
+        <v>0.0003130955249594693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.414998</v>
+      </c>
+      <c r="H24">
+        <v>4.244994</v>
+      </c>
+      <c r="I24">
+        <v>0.0004555850957885808</v>
+      </c>
+      <c r="J24">
+        <v>0.0004555850957885808</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3351513333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.005454</v>
+      </c>
+      <c r="O24">
+        <v>0.005575308836750888</v>
+      </c>
+      <c r="P24">
+        <v>0.005575308836750887</v>
+      </c>
+      <c r="Q24">
+        <v>0.474238466364</v>
+      </c>
+      <c r="R24">
+        <v>4.268146197276</v>
+      </c>
+      <c r="S24">
+        <v>2.540027610442074E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.540027610442074E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.414998</v>
+      </c>
+      <c r="H25">
+        <v>4.244994</v>
+      </c>
+      <c r="I25">
+        <v>0.0004555850957885808</v>
+      </c>
+      <c r="J25">
+        <v>0.0004555850957885808</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.67089366666667</v>
+      </c>
+      <c r="N25">
+        <v>44.012681</v>
+      </c>
+      <c r="O25">
+        <v>0.2440532230299923</v>
+      </c>
+      <c r="P25">
+        <v>0.2440532230299923</v>
+      </c>
+      <c r="Q25">
+        <v>20.759285196546</v>
+      </c>
+      <c r="R25">
+        <v>186.833566768914</v>
+      </c>
+      <c r="S25">
+        <v>0.0001111870109916309</v>
+      </c>
+      <c r="T25">
+        <v>0.0001111870109916309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.414998</v>
+      </c>
+      <c r="H26">
+        <v>4.244994</v>
+      </c>
+      <c r="I26">
+        <v>0.0004555850957885808</v>
+      </c>
+      <c r="J26">
+        <v>0.0004555850957885808</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1816826666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.545048</v>
+      </c>
+      <c r="O26">
+        <v>0.003022327158530771</v>
+      </c>
+      <c r="P26">
+        <v>0.003022327158530771</v>
+      </c>
+      <c r="Q26">
+        <v>0.257080609968</v>
+      </c>
+      <c r="R26">
+        <v>2.313725489712</v>
+      </c>
+      <c r="S26">
+        <v>1.37692720802367E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.37692720802367E-06</v>
       </c>
     </row>
   </sheetData>
